--- a/biology/Botanique/Euphorbia_kamerunica/Euphorbia_kamerunica.xlsx
+++ b/biology/Botanique/Euphorbia_kamerunica/Euphorbia_kamerunica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphorbia kamerunica est une espèce de plantes à fleurs appartenant à la famille des Euphorbiaceae. Elle est endémique au Togo, au Bénin, au Nigeria et au Cameroun[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphorbia kamerunica est une espèce de plantes à fleurs appartenant à la famille des Euphorbiaceae. Elle est endémique au Togo, au Bénin, au Nigeria et au Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphorbia est un nom générique qui provient du médecin grec du roi Juba II de Maurétanie, Euphorbus (en). Euphorbe en son honneur ou en référence à son gros ventre parce qu'il a utilisé Euphorbia resinifera comme plante médicale. En 1753, Carl von Linné lui a attribué le nom générique[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphorbia est un nom générique qui provient du médecin grec du roi Juba II de Maurétanie, Euphorbus (en). Euphorbe en son honneur ou en référence à son gros ventre parce qu'il a utilisé Euphorbia resinifera comme plante médicale. En 1753, Carl von Linné lui a attribué le nom générique. 
 Kamerunica est une épithète qui fait référence à l'emplacement géographique au Cameroun.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphorbia kamerunica est un arbuste ou un arbre avec une ramification candélabre à 7,5 à 10 m de haut, formant des masses enchevêtrées de 5-6 m de diamètre, normalement avec un diamètre de tronc distinct de 50 cm à la base[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphorbia kamerunica est un arbuste ou un arbre avec une ramification candélabre à 7,5 à 10 m de haut, formant des masses enchevêtrées de 5-6 m de diamètre, normalement avec un diamètre de tronc distinct de 50 cm à la base.
 Présent sur les rochers, il est souvent planté dans les villes et villages pour la défense.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphorbia kamerunica entre dans la composition d'un poison de flèches utilisé par les populations Fali au nord du Mont Tinguelin[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphorbia kamerunica entre dans la composition d'un poison de flèches utilisé par les populations Fali au nord du Mont Tinguelin.
 </t>
         </is>
       </c>
